--- a/Data/Drug Dilution Tables/240726_DDT_EC50.xlsx
+++ b/Data/Drug Dilution Tables/240726_DDT_EC50.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofcambridgecloud-my.sharepoint.com/personal/cm2162_cam_ac_uk/Documents/Lab Notebook/Data/Drug Dilution Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="294" documentId="8_{E5B666E1-2E84-F644-A6CF-C787879DBDDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94430F20-29E8-734A-86CA-4D730D462446}"/>
+  <xr:revisionPtr revIDLastSave="295" documentId="8_{E5B666E1-2E84-F644-A6CF-C787879DBDDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EB3EA6C-8933-6343-BA43-C62565F78A2C}"/>
   <bookViews>
-    <workbookView xWindow="32060" yWindow="300" windowWidth="29400" windowHeight="16860" xr2:uid="{1379DBA8-BB83-2F42-B17C-BC8606A812DC}"/>
+    <workbookView xWindow="32060" yWindow="300" windowWidth="29400" windowHeight="16860" activeTab="1" xr2:uid="{1379DBA8-BB83-2F42-B17C-BC8606A812DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,9 +82,6 @@
     <t>Media Volume (µL)</t>
   </si>
   <si>
-    <t>Working Stock [RTX] (µL/mL)</t>
-  </si>
-  <si>
     <t>Stock</t>
   </si>
   <si>
@@ -173,6 +170,9 @@
   </si>
   <si>
     <t>C3-DP2</t>
+  </si>
+  <si>
+    <t>Working Stock [RTX] (µg/mL)</t>
   </si>
 </sst>
 </file>
@@ -589,7 +589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C30211B3-F241-4E45-997A-6E71BA0CA3E4}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -607,39 +607,39 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
       <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>26</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2">
         <v>40</v>
@@ -665,10 +665,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2">
         <v>40</v>
@@ -685,10 +685,10 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2">
         <v>40</v>
@@ -705,10 +705,10 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2">
         <v>40</v>
@@ -725,10 +725,10 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2">
         <v>40</v>
@@ -745,10 +745,10 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2">
         <v>40</v>
@@ -774,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFF2DF08-FEFA-C14A-8884-5365604A78BB}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -804,7 +804,7 @@
         <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18">
@@ -816,7 +816,7 @@
         <v>19.956250000000001</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2">
         <f>Sheet1!G2</f>
@@ -958,7 +958,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="3">
         <f t="shared" ref="B8:B10" si="4">F8/4</f>
@@ -983,7 +983,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="3">
         <f t="shared" si="4"/>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="3">
         <f t="shared" si="4"/>
@@ -1062,7 +1062,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1075,28 +1075,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
       <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
         <v>31</v>
-      </c>
-      <c r="H1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:8">
